--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1995.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1995.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.002*"foreign" + 0.002*"may" + 0.001*"bank" + 0.001*"currency" + 0.001*"percent" + 0.001*"exchange" + 0.001*"import" + 0.001*"export" + 0.001*"rate" + 0.001*"account"</t>
-  </si>
-  <si>
-    <t>0.023*"foreign" + 0.018*"bank" + 0.017*"exchange" + 0.015*"may" + 0.014*"import" + 0.012*"currency" + 0.012*"export" + 0.010*"account" + 0.010*"rate" + 0.009*"payment"</t>
-  </si>
-  <si>
-    <t>0.024*"exchange" + 0.021*"foreign" + 0.016*"import" + 0.015*"may" + 0.013*"currency" + 0.010*"payment" + 0.010*"account" + 0.010*"bank" + 0.009*"export" + 0.008*"country"</t>
-  </si>
-  <si>
-    <t>0.007*"foreign" + 0.004*"bank" + 0.004*"exchange" + 0.003*"rate" + 0.003*"currency" + 0.003*"import" + 0.003*"payment" + 0.002*"may" + 0.002*"export" + 0.002*"account"</t>
-  </si>
-  <si>
-    <t>0.007*"foreign" + 0.004*"bank" + 0.004*"currency" + 0.004*"exchange" + 0.003*"payment" + 0.003*"import" + 0.003*"may" + 0.003*"account" + 0.003*"percent" + 0.003*"export"</t>
+    <t>0.026*"bank" + 0.021*"control" + 0.016*"investment" + 0.015*"regulation" + 0.014*"foreign" + 0.013*"exchange" + 0.013*"central" + 0.013*"originate" + 0.012*"ministry" + 0.012*"require"</t>
+  </si>
+  <si>
+    <t>0.068*"foreign" + 0.046*"exchange" + 0.044*"currency" + 0.036*"may" + 0.030*"bank" + 0.029*"account" + 0.021*"resident" + 0.020*"nonresident" + 0.016*"gold" + 0.011*"abroad"</t>
+  </si>
+  <si>
+    <t>0.043*"import" + 0.034*"export" + 0.023*"country" + 0.020*"must" + 0.020*"payment" + 0.016*"may" + 0.016*"bank" + 0.014*"good" + 0.013*"make" + 0.012*"license"</t>
+  </si>
+  <si>
+    <t>0.033*"capital" + 0.022*"invisibles" + 0.020*"redistribution" + 0.018*"transfer" + 0.018*"payment" + 0.017*"abroad" + 0.016*"travel" + 0.015*"limit" + 0.013*"january" + 0.010*"however"</t>
+  </si>
+  <si>
+    <t>0.049*"rate" + 0.043*"percent" + 0.025*"fund" + 0.021*"import" + 0.020*"international" + 0.019*"export" + 0.018*"monetary" + 0.016*"product" + 0.014*"tariff" + 0.013*"tax"</t>
   </si>
 </sst>
 </file>
